--- a/biology/Médecine/Helena_Ranta/Helena_Ranta.xlsx
+++ b/biology/Médecine/Helena_Ranta/Helena_Ranta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Meri Helena Ranta (née le 11 juin 1946) est une dentiste légiste (en) finlandaise. Elle est connue pour avoir contribué à nombreuses enquêtes internationales sur zones de conflits, comme au Kosovo.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Meri Helena Ranta est née en Finlande. Elle est docteur en chirurgie-dentaire. Elle participe à de nombreuses enquêtes internationales sur des sévices exercés durant des conflits armés, à travers l'analyse des dentitions des victimes. A ce titre, elle témoigna lors du procès du président yougoslave Slobodan Milošević après ses travaux sur le massacre de Račak au Kosovo, où 45 civiles furent exécutés par la police serbe. 
-Elle aussi participé à l'enquête du naufrage de l'Estonia[1], et à celle sur les allégations de massacres israéliens dans le camp de réfugié de Jénine[2] lors de l'opération Rempart.
+Elle aussi participé à l'enquête du naufrage de l'Estonia, et à celle sur les allégations de massacres israéliens dans le camp de réfugié de Jénine lors de l'opération Rempart.
 En complément à ses activités scientifiques, elle est maître de conférences à l'université d'Helsinki, un rare cas car ces postes sont généralement accordés à des docteurs en recherche et non à des praticiens.
 </t>
         </is>
